--- a/Applied example/MIDUS codebooks/Analysis dataset codebook.xlsx
+++ b/Applied example/MIDUS codebooks/Analysis dataset codebook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="860" windowWidth="17380" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="320" yWindow="0" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="113">
   <si>
     <t>A1SEPA_z</t>
   </si>
@@ -187,12 +187,6 @@
     <t>Subjective SES</t>
   </si>
   <si>
-    <t>Lived with alcoholics in childhood</t>
-  </si>
-  <si>
-    <t>Lived with alcoholics</t>
-  </si>
-  <si>
     <t>Father smoked</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
     <t>Residential area</t>
   </si>
   <si>
-    <t>Which of the following best describes the area when you were raised during most of your childhood? (categorical)</t>
-  </si>
-  <si>
     <t>First, did you live with both of your biological parents up until you were 16?</t>
   </si>
   <si>
@@ -254,9 +245,6 @@
   </si>
   <si>
     <t>sum (of A1SE18A A1SE18B A1SE18C A1SE19A A1SE19B A1SE19C)</t>
-  </si>
-  <si>
-    <t>mean (of A1SE14MA A1SE16FA)</t>
   </si>
   <si>
     <t>Age</t>
@@ -360,31 +348,28 @@
   </si>
   <si>
     <t>"childhood SES is defined as the highest level of parental education" where "less than HS=1, HS=2, Some college=3, College degree or more=4"</t>
+  </si>
+  <si>
+    <t>mean (of A1SE14MA A1SE16FA) from Ying's dataset</t>
+  </si>
+  <si>
+    <t>Which of the following best describes the area when you were raised during most of your childhood? (categorical). [See codebook for categories.]</t>
+  </si>
+  <si>
+    <t>Lived with alcoholic</t>
+  </si>
+  <si>
+    <t>Lived with an alcoholic in childhood (before age 16)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -406,25 +391,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="14"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -446,28 +442,27 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -809,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G38"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -822,7 +817,8 @@
     <col min="7" max="7" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="27" customHeight="1">
+    <row r="1" spans="1:11" ht="27" customHeight="1">
+      <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>36</v>
       </c>
@@ -836,587 +832,890 @@
         <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="1" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F2">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="42">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="18">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="16">
-      <c r="B6" s="1" t="s">
+      <c r="F28" s="1">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="16">
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="16">
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="16">
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="45">
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="16">
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F31" s="1">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="F32" s="1">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E21" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1"/>
+      <c r="B34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E23" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1"/>
+      <c r="B36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E24" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1"/>
+      <c r="B37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1"/>
+      <c r="B38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="17">
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="17">
-      <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="17">
-      <c r="B29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="17">
-      <c r="B30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38">
-        <v>4</v>
-      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1441,17 +1740,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
